--- a/rawdata/figure4/figure4.xlsx
+++ b/rawdata/figure4/figure4.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrs/Documents/pa14_nodrug/submit/rawdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrs/Documents/pa14_nodrug/submit/rawdata/figure4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC67726-6865-7D4F-B063-467ED6CB7AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD90A2F-EE07-F441-B418-19F02A4C5654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{66A0D31F-4E30-0E47-A9B9-4874FCE1DD90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="23">
   <si>
     <t>All</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Experiment Date</t>
+  </si>
+  <si>
+    <t>9.25.21</t>
   </si>
 </sst>
 </file>
@@ -470,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC779D4-EB18-9449-B2B3-155A303279FF}">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:D28"/>
+      <selection activeCell="M29" sqref="M29:P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -792,580 +795,752 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="G9" s="1">
-        <v>-0.31</v>
-      </c>
-      <c r="H9" s="1">
-        <v>-0.17</v>
-      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1">
-        <v>-0.51</v>
-      </c>
-      <c r="K9" s="1">
-        <v>-0.31</v>
-      </c>
-      <c r="L9" s="1">
-        <v>-0.54</v>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0.98</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G10" s="1">
-        <v>-0.38</v>
-      </c>
-      <c r="H10" s="1">
-        <v>-0.67</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1">
-        <v>-0.47</v>
-      </c>
-      <c r="K10" s="1">
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="L10" s="1">
-        <v>-0.67</v>
+        <v>16</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0.35</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="G11" s="1">
-        <v>-0.11</v>
-      </c>
-      <c r="H11" s="1">
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1">
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="K11" s="1">
-        <v>-0.4</v>
-      </c>
-      <c r="L11" s="1">
-        <v>-0.19</v>
+        <v>16</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0.69</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1">
-        <v>-0.01</v>
-      </c>
-      <c r="G12" s="1">
-        <v>-0.39</v>
-      </c>
-      <c r="H12" s="1">
-        <v>-0.34</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1">
-        <v>-0.37</v>
-      </c>
-      <c r="K12" s="1">
-        <v>-0.21</v>
-      </c>
-      <c r="L12" s="1">
-        <v>-0.66</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>-0.09</v>
+      </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="H13" s="1">
-        <v>-0.19</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K13" s="1">
-        <v>-0.09</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0.01</v>
+      <c r="D13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1.43</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0.97</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1">
-        <v>0.82</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="H14" s="1">
-        <v>-0.1</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1">
-        <v>-0.01</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0.16</v>
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-0.05</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T14" s="1">
+        <v>1.41</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="N15" s="1">
         <v>0.68</v>
       </c>
-      <c r="G15" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="H15" s="1">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="L15" s="1">
-        <v>-7.0000000000000007E-2</v>
+      <c r="O15" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S15" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="T15" s="1">
+        <v>1.17</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="L16" s="1">
-        <v>-0.08</v>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="T16" s="1">
+        <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="F17" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-0.31</v>
+      </c>
       <c r="H17" s="1">
-        <v>-0.43</v>
+        <v>-0.17</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="J17" s="1">
+        <v>-0.51</v>
+      </c>
+      <c r="K17" s="1">
+        <v>-0.31</v>
+      </c>
       <c r="L17" s="1">
-        <v>-0.2</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="F18" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-0.38</v>
+      </c>
       <c r="H18" s="1">
-        <v>-0.33</v>
+        <v>-0.67</v>
       </c>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="J18" s="1">
+        <v>-0.47</v>
+      </c>
+      <c r="K18" s="1">
+        <v>-0.28000000000000003</v>
+      </c>
       <c r="L18" s="1">
-        <v>-0.14000000000000001</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="F19" s="1">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-0.11</v>
+      </c>
       <c r="H19" s="1">
-        <v>-0.35</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="J19" s="1">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="K19" s="1">
+        <v>-0.4</v>
+      </c>
       <c r="L19" s="1">
-        <v>-0.33</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="F20" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="G20" s="1">
+        <v>-0.39</v>
+      </c>
       <c r="H20" s="1">
-        <v>-0.36</v>
+        <v>-0.34</v>
       </c>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="J20" s="1">
+        <v>-0.37</v>
+      </c>
+      <c r="K20" s="1">
+        <v>-0.21</v>
+      </c>
       <c r="L20" s="1">
-        <v>-0.28999999999999998</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="F21" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="H21" s="1">
+        <v>-0.19</v>
+      </c>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="O21" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="P21" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R21" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="S21" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="T21" s="1">
-        <v>0.98</v>
+      <c r="J21" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K21" s="1">
+        <v>-0.09</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.01</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0.41</v>
-      </c>
-      <c r="N22" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="O22" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="P22" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="R22" s="1">
-        <v>0.54</v>
-      </c>
-      <c r="S22" s="1">
-        <v>0.41</v>
-      </c>
-      <c r="T22" s="1">
-        <v>0.35</v>
+        <v>19</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="H22" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.16</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="N23" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="O23" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="P23" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1">
-        <v>0.39</v>
-      </c>
-      <c r="S23" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="T23" s="1">
-        <v>0.69</v>
+        <v>19</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="H23" s="1">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="L23" s="1">
+        <v>-7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M24" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="N24" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="O24" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="T24" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="L24" s="1">
+        <v>-0.08</v>
+      </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="1">
-        <v>-0.09</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N25" s="1">
-        <v>0.66</v>
-      </c>
-      <c r="O25" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="P25" s="1">
-        <v>1.43</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="R25" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="S25" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="T25" s="1">
-        <v>0.97</v>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1">
+        <v>-0.43</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="D26" s="1">
-        <v>-0.05</v>
-      </c>
-      <c r="M26" s="1">
-        <v>0.54</v>
-      </c>
-      <c r="N26" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="O26" s="1">
-        <v>0.76</v>
-      </c>
-      <c r="P26" s="1">
-        <v>1.23</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="R26" s="1">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="S26" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="T26" s="1">
-        <v>1.41</v>
+        <v>20</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1">
+        <v>-0.33</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1">
+        <v>-0.14000000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="N27" s="1">
-        <v>0.68</v>
-      </c>
-      <c r="O27" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="P27" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="R27" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="S27" s="1">
-        <v>1.06</v>
-      </c>
-      <c r="T27" s="1">
-        <v>1.17</v>
+        <v>20</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1">
+        <v>-0.35</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="1">
+        <v>20</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1">
+        <v>-0.36</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1">
+        <v>-0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1">
+        <v>-0.05</v>
+      </c>
+      <c r="D29" s="1">
+        <v>-0.09</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="H29" s="1">
+        <v>-0.36</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L29" s="1">
+        <v>-0.11</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="E30" s="1">
+        <v>-0.12</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H30" s="1">
+        <v>-0.61</v>
+      </c>
+      <c r="I30" s="1">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="J30" s="1">
+        <v>-0.13</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L30" s="1">
+        <v>-0.22</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="O30" s="1">
         <v>0.19</v>
       </c>
-      <c r="C28" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="P30" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T30" s="1"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="E31" s="1">
+        <v>-0.11</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="H31" s="1">
+        <v>-0.43</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="J31" s="1">
+        <v>-0.09</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="M31" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M28" s="1">
-        <v>0.78</v>
-      </c>
-      <c r="N28" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="O28" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="R28" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="S28" s="1">
-        <v>0.79</v>
-      </c>
-      <c r="T28" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
+      <c r="N31" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="R31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0.37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
